--- a/data/format.xlsx
+++ b/data/format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\projects\stock_val_streamlit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\projects\stock_val\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E66BB48-E961-443C-8393-6A672FC223A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954D98F9-18B4-407C-877C-CE6DBAFB2970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9AFF03F-ECC7-463B-B03A-921C9B3964C1}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>Discounted rate</t>
   </si>
   <si>
-    <t>Predicted Share Price</t>
-  </si>
-  <si>
     <t>Subjective Confidence Factor</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>E EBITDA</t>
+  </si>
+  <si>
+    <t>Predicted Share Price Disc</t>
   </si>
 </sst>
 </file>
@@ -631,13 +631,13 @@
   </sheetPr>
   <dimension ref="A2:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.21875" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
   </cols>
@@ -808,7 +808,7 @@
     </row>
     <row r="24" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="5">
         <f>B7*4*((1+B22)^5)</f>
@@ -821,7 +821,7 @@
     </row>
     <row r="25" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="5">
         <f t="shared" ref="B25:C25" si="0">B24*B23</f>
@@ -952,7 +952,7 @@
     </row>
     <row r="38" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B38" s="13">
         <f t="shared" ref="B38:C38" si="4">B36/((B37+1)^5)</f>
@@ -965,7 +965,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="14">
         <v>1</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="40" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="14">
         <f ca="1">((C38*B39-B4)/(C38*B39-B38))</f>
